--- a/testData_cucumber/Mobile/MobileAutomation/DataRepo.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/DataRepo.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView windowHeight="11160" windowWidth="20736" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" r:id="rId1" sheetId="2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -33,71 +33,24 @@
     <t>PreRequisites</t>
   </si>
   <si>
-    <t>ClaimNo</t>
-  </si>
-  <si>
-    <t>TC007_BBCEHomeowners-XM-Property_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC02_BBCE_PersonalAuto_Salvage_GAIN_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC011_BBCE_CommercialAuto-Auto-Salvage - PRPWINS_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC042_BBCECommercialPackage-Liability-Salvage - XM - New Incident_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC24_BoatOwners_Liability_Salvage_UIC_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC28_BBCEBusinessOwners_Property_Gain_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC006_FlexBiz-Liability_with_Auto_incident_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC110_GWCC_MarketScout_InlandMarine_Property_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC52_PersonalUmbrella_Liability_NonSalvage_UIC_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC54_General Liability_QIC_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC94_BBCE_HealthCare_Phase2_Liability_WINS_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC001_BBCE_DwellingFireProperty-GAIN_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC119_GWCC_SecurityFirst_Property1_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC118_McDonalds_Property1_TEST_OPT</t>
-  </si>
-  <si>
-    <t>TC108_BBCE_Aviation_Majesco_CGL_Aviation_TEST_OPT</t>
-  </si>
-  <si>
-    <t>GWCC-23546_Legacy claim search_TC001</t>
-  </si>
-  <si>
-    <t>GWCC-23546_Legacy claim search_TC002</t>
-  </si>
-  <si>
-    <t>CommercialProperty_AutomatedAssignment-EXCL-DwellingFire-History</t>
-  </si>
-  <si>
-    <t>Login for TestID</t>
+    <t>TC_001_Calculator_Automation</t>
+  </si>
+  <si>
+    <t>TC_002_Dial_Mobile_Number</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>(904) 793-9924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,14 +70,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +81,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,26 +116,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -199,10 +148,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -237,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -272,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,21 +315,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -397,7 +346,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -449,32 +398,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="99.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="2" collapsed="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="34.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
+    <col min="8" max="8" style="2" width="9.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="16.5546875" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -485,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -497,158 +446,25 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row ht="14.4" r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testData_cucumber/Mobile/MobileAutomation/DataRepo.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/DataRepo.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20736" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" r:id="rId1" sheetId="2"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -43,13 +43,15 @@
   </si>
   <si>
     <t>(904) 793-9924</t>
+  </si>
+  <si>
+    <t>TC_003_Send_SMS_In_Android_Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,22 +118,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,10 +150,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -186,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -315,21 +317,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -346,7 +348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -398,32 +400,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="34.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="39.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
-    <col min="8" max="8" style="2" width="9.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="16.5546875" collapsed="true"/>
-    <col min="10" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="34.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.109375" style="2" collapsed="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -453,7 +455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="14.4" r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -464,7 +466,15 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>